--- a/dtpu_configurations/only_integer16/80mhz/mxu_6x6/power.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_6x6/power.xlsx
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.032332416623830795</v>
+        <v>0.032597362995147705</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.01356557011604309</v>
+        <v>0.014375525526702404</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.010574144311249256</v>
+        <v>0.010105609893798828</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.008464770391583443</v>
+        <v>0.01039084605872631</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>4.2423460399731994E-5</v>
+        <v>1.9257818348705769E-4</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.002681552665308118</v>
+        <v>0.0023236784618347883</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>0.0014924227725714445</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12709586322307587</v>
+        <v>0.12762922048568726</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4567077159881592</v>
+        <v>1.4595657587051392</v>
       </c>
     </row>
   </sheetData>
